--- a/app/templates/report/pagosrecibidos.xlsx
+++ b/app/templates/report/pagosrecibidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2EA07-FD63-46E8-A013-E8B6E4774B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0EC6CA-2904-4CF1-977F-1E76CBFA73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Fecha de emisión</t>
   </si>
   <si>
-    <t>Código de autorización</t>
-  </si>
-  <si>
     <t>Fecha de 
 pago</t>
   </si>
@@ -76,9 +73,6 @@
 pago</t>
   </si>
   <si>
-    <t>Código de operación</t>
-  </si>
-  <si>
     <t>TPV</t>
   </si>
   <si>
@@ -107,6 +101,13 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Nº orden
+TPV</t>
+  </si>
+  <si>
+    <t>Código autoriz.</t>
   </si>
 </sst>
 </file>
@@ -116,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +144,14 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,6 +265,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +576,9 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -574,7 +588,7 @@
     <col min="4" max="4" width="19.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="13" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" style="15" customWidth="1"/>
     <col min="10" max="12" width="41.5703125" style="16" customWidth="1"/>
     <col min="13" max="13" width="13" style="16" customWidth="1"/>
@@ -598,6 +612,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
+      <c r="G1" s="19">
+        <f>SUM(G3:G99999)</f>
+        <v>0</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
@@ -618,19 +636,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>1</v>
@@ -651,28 +669,28 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>4</v>
@@ -680,7 +698,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="18"/>
@@ -695,19 +713,19 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U3" s="1"/>
     </row>

--- a/app/templates/report/pagosrecibidos.xlsx
+++ b/app/templates/report/pagosrecibidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0EC6CA-2904-4CF1-977F-1E76CBFA73D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE76EE-1E8E-474C-98F0-BFD544E1FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Pagos recibidos</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Código autoriz.</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
   </si>
 </sst>
 </file>
@@ -147,11 +150,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -212,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,7 +265,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -576,30 +581,28 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="15" customWidth="1"/>
-    <col min="10" max="12" width="41.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13" style="16" customWidth="1"/>
-    <col min="16" max="16" width="11" style="17" customWidth="1"/>
-    <col min="17" max="17" width="13" style="16" customWidth="1"/>
-    <col min="18" max="18" width="11" style="17" customWidth="1"/>
-    <col min="19" max="19" width="13" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11" style="17" customWidth="1"/>
-    <col min="21" max="21" width="41.5703125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="11" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="14" customWidth="1"/>
+    <col min="10" max="12" width="41.5703125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="13" style="15" customWidth="1"/>
+    <col min="14" max="14" width="11" style="16" customWidth="1"/>
+    <col min="15" max="15" width="13" style="15" customWidth="1"/>
+    <col min="16" max="16" width="11" style="16" customWidth="1"/>
+    <col min="17" max="17" width="13" style="15" customWidth="1"/>
+    <col min="18" max="18" width="11" style="16" customWidth="1"/>
+    <col min="19" max="19" width="13" style="15" customWidth="1"/>
+    <col min="20" max="20" width="11" style="16" customWidth="1"/>
+    <col min="21" max="21" width="41.5703125" style="15" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -611,9 +614,11 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G1" s="19">
-        <f>SUM(G3:G99999)</f>
+        <f>SUBTOTAL(9,G3:G99999)</f>
         <v>0</v>
       </c>
       <c r="H1" s="4"/>
@@ -697,34 +702,34 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="S3" s="1"/>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="U3" s="1"/>

--- a/app/templates/report/pagosrecibidos.xlsx
+++ b/app/templates/report/pagosrecibidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE76EE-1E8E-474C-98F0-BFD544E1FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7965EE-A0C4-42F3-BCF6-33AEEC942848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$V$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Pagos recibidos</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>Recurso</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,20 +596,21 @@
     <col min="6" max="6" width="10.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" style="14" customWidth="1"/>
-    <col min="10" max="12" width="41.5703125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="13" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11" style="16" customWidth="1"/>
-    <col min="15" max="15" width="13" style="15" customWidth="1"/>
-    <col min="16" max="16" width="11" style="16" customWidth="1"/>
-    <col min="17" max="17" width="13" style="15" customWidth="1"/>
-    <col min="18" max="18" width="11" style="16" customWidth="1"/>
-    <col min="19" max="19" width="13" style="15" customWidth="1"/>
-    <col min="20" max="20" width="11" style="16" customWidth="1"/>
-    <col min="21" max="21" width="41.5703125" style="15" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="7"/>
+    <col min="10" max="10" width="19.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="41.5703125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="13" style="15" customWidth="1"/>
+    <col min="15" max="15" width="11" style="16" customWidth="1"/>
+    <col min="16" max="16" width="13" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11" style="16" customWidth="1"/>
+    <col min="18" max="18" width="13" style="15" customWidth="1"/>
+    <col min="19" max="19" width="11" style="16" customWidth="1"/>
+    <col min="20" max="20" width="13" style="15" customWidth="1"/>
+    <col min="21" max="21" width="11" style="16" customWidth="1"/>
+    <col min="22" max="22" width="41.5703125" style="15" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,20 +627,21 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -665,43 +670,46 @@
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -713,29 +721,30 @@
       <c r="G3" s="20"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="1"/>
+      <c r="U3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/pagosrecibidos.xlsx
+++ b/app/templates/report/pagosrecibidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7965EE-A0C4-42F3-BCF6-33AEEC942848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0264A9-5AC9-4586-BA0A-D9341FAB07A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
     <col min="6" max="6" width="10.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="14" customWidth="1"/>
     <col min="11" max="13" width="41.5703125" style="15" customWidth="1"/>
     <col min="14" max="14" width="13" style="15" customWidth="1"/>
     <col min="15" max="15" width="11" style="16" customWidth="1"/>
@@ -721,7 +721,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>

--- a/app/templates/report/pagosrecibidos.xlsx
+++ b/app/templates/report/pagosrecibidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0264A9-5AC9-4586-BA0A-D9341FAB07A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB7C0D-6931-4C00-BCBC-7133F44FFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$Z$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Pagos recibidos</t>
   </si>
@@ -79,25 +79,13 @@
     <t>Nº de Factura 1</t>
   </si>
   <si>
-    <t>Fecha de factura 1</t>
-  </si>
-  <si>
     <t>Nº de Factura 2</t>
   </si>
   <si>
-    <t>Fecha de factura 2</t>
-  </si>
-  <si>
     <t>Nº de Factura 3</t>
   </si>
   <si>
-    <t>Fecha de factura 3</t>
-  </si>
-  <si>
     <t>Nº de Factura 4</t>
-  </si>
-  <si>
-    <t>Fecha de factura 4</t>
   </si>
   <si>
     <t>date</t>
@@ -217,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -233,9 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,35 +567,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="14" customWidth="1"/>
-    <col min="11" max="13" width="41.5703125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="13" style="15" customWidth="1"/>
-    <col min="15" max="15" width="11" style="16" customWidth="1"/>
-    <col min="16" max="16" width="13" style="15" customWidth="1"/>
-    <col min="17" max="17" width="11" style="16" customWidth="1"/>
-    <col min="18" max="18" width="13" style="15" customWidth="1"/>
-    <col min="19" max="19" width="11" style="16" customWidth="1"/>
-    <col min="20" max="20" width="13" style="15" customWidth="1"/>
-    <col min="21" max="21" width="11" style="16" customWidth="1"/>
-    <col min="22" max="22" width="41.5703125" style="15" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="13" customWidth="1"/>
+    <col min="11" max="13" width="41.5703125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="13" style="14" customWidth="1"/>
+    <col min="15" max="15" width="51.7109375" style="14" customWidth="1"/>
+    <col min="16" max="17" width="13" style="14" customWidth="1"/>
+    <col min="18" max="18" width="51.7109375" style="14" customWidth="1"/>
+    <col min="19" max="20" width="13" style="14" customWidth="1"/>
+    <col min="21" max="21" width="51.7109375" style="14" customWidth="1"/>
+    <col min="22" max="23" width="13" style="14" customWidth="1"/>
+    <col min="24" max="24" width="51.7109375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="13" style="14" customWidth="1"/>
+    <col min="26" max="26" width="41.5703125" style="14" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,10 +604,10 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="19">
+      <c r="F1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="18">
         <f>SUBTOTAL(9,G3:G99999)</f>
         <v>0</v>
       </c>
@@ -632,35 +618,39 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="6"/>
+      <c r="U1" s="5"/>
       <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -670,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>5</v>
@@ -684,67 +674,75 @@
       <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="U2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="S3" s="19"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Z2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/pagosrecibidos.xlsx
+++ b/app/templates/report/pagosrecibidos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB7C0D-6931-4C00-BCBC-7133F44FFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9151B13-065C-4E32-B577-41891982E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Pagos recibidos</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Recurso</t>
+  </si>
+  <si>
+    <t>Pagado</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
@@ -567,36 +573,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="13" customWidth="1"/>
-    <col min="11" max="13" width="41.5703125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="13" style="14" customWidth="1"/>
-    <col min="15" max="15" width="51.7109375" style="14" customWidth="1"/>
-    <col min="16" max="17" width="13" style="14" customWidth="1"/>
-    <col min="18" max="18" width="51.7109375" style="14" customWidth="1"/>
-    <col min="19" max="20" width="13" style="14" customWidth="1"/>
-    <col min="21" max="21" width="51.7109375" style="14" customWidth="1"/>
-    <col min="22" max="23" width="13" style="14" customWidth="1"/>
-    <col min="24" max="24" width="51.7109375" style="14" customWidth="1"/>
-    <col min="25" max="25" width="13" style="14" customWidth="1"/>
-    <col min="26" max="26" width="41.5703125" style="14" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="10.6640625" style="14" customWidth="1"/>
+    <col min="7" max="9" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="13" customWidth="1"/>
+    <col min="13" max="15" width="41.5546875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="13" style="14" customWidth="1"/>
+    <col min="17" max="17" width="51.6640625" style="14" customWidth="1"/>
+    <col min="18" max="19" width="13" style="14" customWidth="1"/>
+    <col min="20" max="20" width="51.6640625" style="14" customWidth="1"/>
+    <col min="21" max="22" width="13" style="14" customWidth="1"/>
+    <col min="23" max="23" width="51.6640625" style="14" customWidth="1"/>
+    <col min="24" max="25" width="13" style="14" customWidth="1"/>
+    <col min="26" max="26" width="51.6640625" style="14" customWidth="1"/>
+    <col min="27" max="27" width="13" style="14" customWidth="1"/>
+    <col min="28" max="28" width="41.5546875" style="14" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,11 +617,17 @@
         <f>SUBTOTAL(9,G3:G99999)</f>
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="18">
+        <f>SUBTOTAL(9,H3:H99999)</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="18">
+        <f>SUBTOTAL(9,I3:I99999)</f>
+        <v>0</v>
+      </c>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -630,8 +642,10 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -653,65 +667,71 @@
       <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
@@ -721,28 +741,33 @@
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19">
+        <f>H3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="19"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AB2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
